--- a/DATA/ALOHAPP/USER/FR/1000WORDSFRENCH.xlsx
+++ b/DATA/ALOHAPP/USER/FR/1000WORDSFRENCH.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
